--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y180"/>
+  <dimension ref="A1:Y181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10928,94 +10934,82 @@
       <c r="Y164" s="2" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr"/>
-      <c r="D165" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="inlineStr"/>
-      <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J165" s="2" t="inlineStr"/>
-      <c r="K165" s="2" t="inlineStr"/>
-      <c r="L165" s="2" t="inlineStr"/>
-      <c r="M165" s="2" t="inlineStr"/>
-      <c r="N165" s="2" t="inlineStr"/>
-      <c r="O165" s="2" t="inlineStr"/>
-      <c r="P165" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="Q165" s="2" t="inlineStr"/>
-      <c r="R165" s="2" t="inlineStr"/>
-      <c r="S165" s="2" t="inlineStr"/>
-      <c r="T165" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U165" s="2" t="inlineStr"/>
-      <c r="V165" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W165" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X165" s="2" t="inlineStr"/>
-      <c r="Y165" s="2" t="inlineStr"/>
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:012346</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr"/>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E165" s="4" t="inlineStr"/>
+      <c r="F165" s="4" t="inlineStr"/>
+      <c r="G165" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H165" s="4" t="inlineStr"/>
+      <c r="I165" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J165" s="4" t="inlineStr"/>
+      <c r="K165" s="4" t="inlineStr"/>
+      <c r="L165" s="4" t="inlineStr"/>
+      <c r="M165" s="4" t="inlineStr"/>
+      <c r="N165" s="4" t="inlineStr"/>
+      <c r="O165" s="4" t="inlineStr"/>
+      <c r="P165" s="4" t="inlineStr"/>
+      <c r="Q165" s="4" t="inlineStr"/>
+      <c r="R165" s="4" t="inlineStr"/>
+      <c r="S165" s="4" t="inlineStr"/>
+      <c r="T165" s="4" t="inlineStr"/>
+      <c r="U165" s="4" t="inlineStr"/>
+      <c r="V165" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W165" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X165" s="4" t="inlineStr"/>
+      <c r="Y165" s="4" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr"/>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -11034,7 +11028,11 @@
       <c r="M166" s="2" t="inlineStr"/>
       <c r="N166" s="2" t="inlineStr"/>
       <c r="O166" s="2" t="inlineStr"/>
-      <c r="P166" s="2" t="inlineStr"/>
+      <c r="P166" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q166" s="2" t="inlineStr"/>
       <c r="R166" s="2" t="inlineStr"/>
       <c r="S166" s="2" t="inlineStr"/>
@@ -11060,25 +11058,25 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -11109,7 +11107,7 @@
       <c r="U167" s="2" t="inlineStr"/>
       <c r="V167" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W167" s="2" t="inlineStr">
@@ -11123,25 +11121,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11160,11 +11158,7 @@
       <c r="M168" s="2" t="inlineStr"/>
       <c r="N168" s="2" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr"/>
-      <c r="P168" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P168" s="2" t="inlineStr"/>
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr"/>
       <c r="S168" s="2" t="inlineStr"/>
@@ -11176,7 +11170,7 @@
       <c r="U168" s="2" t="inlineStr"/>
       <c r="V168" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W168" s="2" t="inlineStr">
@@ -11190,25 +11184,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11243,7 +11237,7 @@
       <c r="U169" s="2" t="inlineStr"/>
       <c r="V169" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W169" s="2" t="inlineStr">
@@ -11257,29 +11251,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -11298,14 +11288,13 @@
       <c r="M170" s="2" t="inlineStr"/>
       <c r="N170" s="2" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr"/>
-      <c r="P170" s="2" t="inlineStr"/>
+      <c r="P170" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q170" s="2" t="inlineStr"/>
-      <c r="R170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R170" s="2" t="inlineStr"/>
       <c r="S170" s="2" t="inlineStr"/>
       <c r="T170" s="2" t="inlineStr">
         <is>
@@ -11315,7 +11304,7 @@
       <c r="U170" s="2" t="inlineStr"/>
       <c r="V170" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W170" s="2" t="inlineStr">
@@ -11329,28 +11318,36 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H171" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11364,12 +11361,13 @@
       <c r="O171" s="2" t="inlineStr"/>
       <c r="P171" s="2" t="inlineStr"/>
       <c r="Q171" s="2" t="inlineStr"/>
-      <c r="R171" s="2" t="inlineStr"/>
-      <c r="S171" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="R171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="S171" s="2" t="inlineStr"/>
       <c r="T171" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11378,7 +11376,7 @@
       <c r="U171" s="2" t="inlineStr"/>
       <c r="V171" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W171" s="2" t="inlineStr">
@@ -11392,25 +11390,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -11428,7 +11426,11 @@
       <c r="P172" s="2" t="inlineStr"/>
       <c r="Q172" s="2" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr"/>
-      <c r="S172" s="2" t="inlineStr"/>
+      <c r="S172" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T172" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11437,7 +11439,7 @@
       <c r="U172" s="2" t="inlineStr"/>
       <c r="V172" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W172" s="2" t="inlineStr">
@@ -11451,25 +11453,25 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -11486,12 +11488,7 @@
       <c r="O173" s="2" t="inlineStr"/>
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="R173" s="2" t="inlineStr"/>
       <c r="S173" s="2" t="inlineStr"/>
       <c r="T173" s="2" t="inlineStr">
         <is>
@@ -11501,7 +11498,7 @@
       <c r="U173" s="2" t="inlineStr"/>
       <c r="V173" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W173" s="2" t="inlineStr">
@@ -11515,25 +11512,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11552,7 +11549,8 @@
       <c r="Q174" s="2" t="inlineStr"/>
       <c r="R174" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="S174" s="2" t="inlineStr"/>
@@ -11564,7 +11562,7 @@
       <c r="U174" s="2" t="inlineStr"/>
       <c r="V174" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W174" s="2" t="inlineStr">
@@ -11578,36 +11576,28 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr"/>
       <c r="I175" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11618,7 +11608,78 @@
       <c r="L175" s="2" t="inlineStr"/>
       <c r="M175" s="2" t="inlineStr"/>
       <c r="N175" s="2" t="inlineStr"/>
-      <c r="O175" s="2" t="inlineStr">
+      <c r="O175" s="2" t="inlineStr"/>
+      <c r="P175" s="2" t="inlineStr"/>
+      <c r="Q175" s="2" t="inlineStr"/>
+      <c r="R175" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="S175" s="2" t="inlineStr"/>
+      <c r="T175" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U175" s="2" t="inlineStr"/>
+      <c r="V175" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W175" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X175" s="2" t="inlineStr"/>
+      <c r="Y175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr"/>
+      <c r="L176" s="2" t="inlineStr"/>
+      <c r="M176" s="2" t="inlineStr"/>
+      <c r="N176" s="2" t="inlineStr"/>
+      <c r="O176" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11628,72 +11689,9 @@
 </t>
         </is>
       </c>
-      <c r="P175" s="2" t="inlineStr"/>
-      <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr"/>
-      <c r="S175" s="2" t="inlineStr"/>
-      <c r="T175" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U175" s="2" t="inlineStr"/>
-      <c r="V175" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W175" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X175" s="2" t="inlineStr"/>
-      <c r="Y175" s="2" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr"/>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr"/>
-      <c r="F176" s="2" t="inlineStr"/>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H176" s="2" t="inlineStr"/>
-      <c r="I176" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr"/>
-      <c r="K176" s="2" t="inlineStr"/>
-      <c r="L176" s="2" t="inlineStr"/>
-      <c r="M176" s="2" t="inlineStr"/>
-      <c r="N176" s="2" t="inlineStr"/>
-      <c r="O176" s="2" t="inlineStr"/>
       <c r="P176" s="2" t="inlineStr"/>
       <c r="Q176" s="2" t="inlineStr"/>
-      <c r="R176" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="R176" s="2" t="inlineStr"/>
       <c r="S176" s="2" t="inlineStr"/>
       <c r="T176" s="2" t="inlineStr">
         <is>
@@ -11703,7 +11701,7 @@
       <c r="U176" s="2" t="inlineStr"/>
       <c r="V176" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W176" s="2" t="inlineStr">
@@ -11717,25 +11715,25 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr"/>
@@ -11752,7 +11750,11 @@
       <c r="O177" s="2" t="inlineStr"/>
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr"/>
-      <c r="R177" s="2" t="inlineStr"/>
+      <c r="R177" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S177" s="2" t="inlineStr"/>
       <c r="T177" s="2" t="inlineStr">
         <is>
@@ -11762,7 +11764,7 @@
       <c r="U177" s="2" t="inlineStr"/>
       <c r="V177" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W177" s="2" t="inlineStr">
@@ -11776,25 +11778,25 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
@@ -11821,7 +11823,7 @@
       <c r="U178" s="2" t="inlineStr"/>
       <c r="V178" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W178" s="2" t="inlineStr">
@@ -11835,32 +11837,28 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr"/>
       <c r="I179" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11884,7 +11882,7 @@
       <c r="U179" s="2" t="inlineStr"/>
       <c r="V179" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W179" s="2" t="inlineStr">
@@ -11898,28 +11896,32 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11934,11 +11936,7 @@
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
       <c r="R180" s="2" t="inlineStr"/>
-      <c r="S180" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S180" s="2" t="inlineStr"/>
       <c r="T180" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11947,7 +11945,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">
@@ -11957,6 +11955,69 @@
       </c>
       <c r="X180" s="2" t="inlineStr"/>
       <c r="Y180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr"/>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr"/>
+      <c r="M181" s="2" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr"/>
+      <c r="O181" s="2" t="inlineStr"/>
+      <c r="P181" s="2" t="inlineStr"/>
+      <c r="Q181" s="2" t="inlineStr"/>
+      <c r="R181" s="2" t="inlineStr"/>
+      <c r="S181" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U181" s="2" t="inlineStr"/>
+      <c r="V181" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W181" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X181" s="2" t="inlineStr"/>
+      <c r="Y181" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y181"/>
+  <dimension ref="A1:Y182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10973,7 +10973,9 @@
       <c r="Q165" s="4" t="inlineStr"/>
       <c r="R165" s="4" t="inlineStr"/>
       <c r="S165" s="4" t="inlineStr"/>
-      <c r="T165" s="4" t="inlineStr"/>
+      <c r="T165" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U165" s="4" t="inlineStr"/>
       <c r="V165" s="4" t="inlineStr">
         <is>
@@ -10989,94 +10991,82 @@
       <c r="Y165" s="4" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr"/>
-      <c r="D166" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J166" s="2" t="inlineStr"/>
-      <c r="K166" s="2" t="inlineStr"/>
-      <c r="L166" s="2" t="inlineStr"/>
-      <c r="M166" s="2" t="inlineStr"/>
-      <c r="N166" s="2" t="inlineStr"/>
-      <c r="O166" s="2" t="inlineStr"/>
-      <c r="P166" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="Q166" s="2" t="inlineStr"/>
-      <c r="R166" s="2" t="inlineStr"/>
-      <c r="S166" s="2" t="inlineStr"/>
-      <c r="T166" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U166" s="2" t="inlineStr"/>
-      <c r="V166" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W166" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X166" s="2" t="inlineStr"/>
-      <c r="Y166" s="2" t="inlineStr"/>
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:012346</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr"/>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E166" s="4" t="inlineStr"/>
+      <c r="F166" s="4" t="inlineStr"/>
+      <c r="G166" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H166" s="4" t="inlineStr"/>
+      <c r="I166" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J166" s="4" t="inlineStr"/>
+      <c r="K166" s="4" t="inlineStr"/>
+      <c r="L166" s="4" t="inlineStr"/>
+      <c r="M166" s="4" t="inlineStr"/>
+      <c r="N166" s="4" t="inlineStr"/>
+      <c r="O166" s="4" t="inlineStr"/>
+      <c r="P166" s="4" t="inlineStr"/>
+      <c r="Q166" s="4" t="inlineStr"/>
+      <c r="R166" s="4" t="inlineStr"/>
+      <c r="S166" s="4" t="inlineStr"/>
+      <c r="T166" s="4" t="inlineStr"/>
+      <c r="U166" s="4" t="inlineStr"/>
+      <c r="V166" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W166" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X166" s="4" t="inlineStr"/>
+      <c r="Y166" s="4" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -11095,7 +11085,11 @@
       <c r="M167" s="2" t="inlineStr"/>
       <c r="N167" s="2" t="inlineStr"/>
       <c r="O167" s="2" t="inlineStr"/>
-      <c r="P167" s="2" t="inlineStr"/>
+      <c r="P167" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q167" s="2" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr"/>
       <c r="S167" s="2" t="inlineStr"/>
@@ -11121,25 +11115,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11170,7 +11164,7 @@
       <c r="U168" s="2" t="inlineStr"/>
       <c r="V168" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W168" s="2" t="inlineStr">
@@ -11184,25 +11178,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11221,11 +11215,7 @@
       <c r="M169" s="2" t="inlineStr"/>
       <c r="N169" s="2" t="inlineStr"/>
       <c r="O169" s="2" t="inlineStr"/>
-      <c r="P169" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P169" s="2" t="inlineStr"/>
       <c r="Q169" s="2" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr"/>
       <c r="S169" s="2" t="inlineStr"/>
@@ -11237,7 +11227,7 @@
       <c r="U169" s="2" t="inlineStr"/>
       <c r="V169" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W169" s="2" t="inlineStr">
@@ -11251,25 +11241,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -11304,7 +11294,7 @@
       <c r="U170" s="2" t="inlineStr"/>
       <c r="V170" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W170" s="2" t="inlineStr">
@@ -11318,29 +11308,25 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -11359,14 +11345,13 @@
       <c r="M171" s="2" t="inlineStr"/>
       <c r="N171" s="2" t="inlineStr"/>
       <c r="O171" s="2" t="inlineStr"/>
-      <c r="P171" s="2" t="inlineStr"/>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q171" s="2" t="inlineStr"/>
-      <c r="R171" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R171" s="2" t="inlineStr"/>
       <c r="S171" s="2" t="inlineStr"/>
       <c r="T171" s="2" t="inlineStr">
         <is>
@@ -11376,7 +11361,7 @@
       <c r="U171" s="2" t="inlineStr"/>
       <c r="V171" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W171" s="2" t="inlineStr">
@@ -11390,28 +11375,36 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I172" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11425,12 +11418,13 @@
       <c r="O172" s="2" t="inlineStr"/>
       <c r="P172" s="2" t="inlineStr"/>
       <c r="Q172" s="2" t="inlineStr"/>
-      <c r="R172" s="2" t="inlineStr"/>
-      <c r="S172" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="R172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11439,7 +11433,7 @@
       <c r="U172" s="2" t="inlineStr"/>
       <c r="V172" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W172" s="2" t="inlineStr">
@@ -11453,25 +11447,25 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -11489,7 +11483,11 @@
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
       <c r="R173" s="2" t="inlineStr"/>
-      <c r="S173" s="2" t="inlineStr"/>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T173" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11498,7 +11496,7 @@
       <c r="U173" s="2" t="inlineStr"/>
       <c r="V173" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W173" s="2" t="inlineStr">
@@ -11512,25 +11510,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11547,12 +11545,7 @@
       <c r="O174" s="2" t="inlineStr"/>
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="R174" s="2" t="inlineStr"/>
       <c r="S174" s="2" t="inlineStr"/>
       <c r="T174" s="2" t="inlineStr">
         <is>
@@ -11562,7 +11555,7 @@
       <c r="U174" s="2" t="inlineStr"/>
       <c r="V174" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W174" s="2" t="inlineStr">
@@ -11576,25 +11569,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr"/>
@@ -11613,7 +11606,8 @@
       <c r="Q175" s="2" t="inlineStr"/>
       <c r="R175" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="S175" s="2" t="inlineStr"/>
@@ -11625,7 +11619,7 @@
       <c r="U175" s="2" t="inlineStr"/>
       <c r="V175" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W175" s="2" t="inlineStr">
@@ -11639,36 +11633,28 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr"/>
       <c r="I176" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11679,7 +11665,78 @@
       <c r="L176" s="2" t="inlineStr"/>
       <c r="M176" s="2" t="inlineStr"/>
       <c r="N176" s="2" t="inlineStr"/>
-      <c r="O176" s="2" t="inlineStr">
+      <c r="O176" s="2" t="inlineStr"/>
+      <c r="P176" s="2" t="inlineStr"/>
+      <c r="Q176" s="2" t="inlineStr"/>
+      <c r="R176" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="S176" s="2" t="inlineStr"/>
+      <c r="T176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U176" s="2" t="inlineStr"/>
+      <c r="V176" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W176" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X176" s="2" t="inlineStr"/>
+      <c r="Y176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr"/>
+      <c r="L177" s="2" t="inlineStr"/>
+      <c r="M177" s="2" t="inlineStr"/>
+      <c r="N177" s="2" t="inlineStr"/>
+      <c r="O177" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11689,72 +11746,9 @@
 </t>
         </is>
       </c>
-      <c r="P176" s="2" t="inlineStr"/>
-      <c r="Q176" s="2" t="inlineStr"/>
-      <c r="R176" s="2" t="inlineStr"/>
-      <c r="S176" s="2" t="inlineStr"/>
-      <c r="T176" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U176" s="2" t="inlineStr"/>
-      <c r="V176" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W176" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X176" s="2" t="inlineStr"/>
-      <c r="Y176" s="2" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr"/>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr"/>
-      <c r="K177" s="2" t="inlineStr"/>
-      <c r="L177" s="2" t="inlineStr"/>
-      <c r="M177" s="2" t="inlineStr"/>
-      <c r="N177" s="2" t="inlineStr"/>
-      <c r="O177" s="2" t="inlineStr"/>
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr"/>
-      <c r="R177" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="R177" s="2" t="inlineStr"/>
       <c r="S177" s="2" t="inlineStr"/>
       <c r="T177" s="2" t="inlineStr">
         <is>
@@ -11764,7 +11758,7 @@
       <c r="U177" s="2" t="inlineStr"/>
       <c r="V177" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W177" s="2" t="inlineStr">
@@ -11778,25 +11772,25 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
@@ -11813,7 +11807,11 @@
       <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
-      <c r="R178" s="2" t="inlineStr"/>
+      <c r="R178" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr">
         <is>
@@ -11823,7 +11821,7 @@
       <c r="U178" s="2" t="inlineStr"/>
       <c r="V178" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W178" s="2" t="inlineStr">
@@ -11837,25 +11835,25 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -11882,7 +11880,7 @@
       <c r="U179" s="2" t="inlineStr"/>
       <c r="V179" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W179" s="2" t="inlineStr">
@@ -11896,32 +11894,28 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr"/>
       <c r="I180" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11945,7 +11939,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">
@@ -11959,28 +11953,32 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr"/>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11995,11 +11993,7 @@
       <c r="P181" s="2" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr"/>
       <c r="R181" s="2" t="inlineStr"/>
-      <c r="S181" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S181" s="2" t="inlineStr"/>
       <c r="T181" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12008,7 +12002,7 @@
       <c r="U181" s="2" t="inlineStr"/>
       <c r="V181" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W181" s="2" t="inlineStr">
@@ -12018,6 +12012,69 @@
       </c>
       <c r="X181" s="2" t="inlineStr"/>
       <c r="Y181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr"/>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
+      <c r="L182" s="2" t="inlineStr"/>
+      <c r="M182" s="2" t="inlineStr"/>
+      <c r="N182" s="2" t="inlineStr"/>
+      <c r="O182" s="2" t="inlineStr"/>
+      <c r="P182" s="2" t="inlineStr"/>
+      <c r="Q182" s="2" t="inlineStr"/>
+      <c r="R182" s="2" t="inlineStr"/>
+      <c r="S182" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T182" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U182" s="2" t="inlineStr"/>
+      <c r="V182" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W182" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X182" s="2" t="inlineStr"/>
+      <c r="Y182" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y182"/>
+  <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10973,8 +10973,10 @@
       <c r="Q165" s="4" t="inlineStr"/>
       <c r="R165" s="4" t="inlineStr"/>
       <c r="S165" s="4" t="inlineStr"/>
-      <c r="T165" s="4" t="n">
-        <v>0</v>
+      <c r="T165" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U165" s="4" t="inlineStr"/>
       <c r="V165" s="4" t="inlineStr">
@@ -11030,7 +11032,9 @@
       <c r="Q166" s="4" t="inlineStr"/>
       <c r="R166" s="4" t="inlineStr"/>
       <c r="S166" s="4" t="inlineStr"/>
-      <c r="T166" s="4" t="inlineStr"/>
+      <c r="T166" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="U166" s="4" t="inlineStr"/>
       <c r="V166" s="4" t="inlineStr">
         <is>
@@ -11046,94 +11050,82 @@
       <c r="Y166" s="4" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036103</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr"/>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J167" s="2" t="inlineStr"/>
-      <c r="K167" s="2" t="inlineStr"/>
-      <c r="L167" s="2" t="inlineStr"/>
-      <c r="M167" s="2" t="inlineStr"/>
-      <c r="N167" s="2" t="inlineStr"/>
-      <c r="O167" s="2" t="inlineStr"/>
-      <c r="P167" s="2" t="inlineStr">
-        <is>
-          <t>smoking</t>
-        </is>
-      </c>
-      <c r="Q167" s="2" t="inlineStr"/>
-      <c r="R167" s="2" t="inlineStr"/>
-      <c r="S167" s="2" t="inlineStr"/>
-      <c r="T167" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U167" s="2" t="inlineStr"/>
-      <c r="V167" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W167" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X167" s="2" t="inlineStr"/>
-      <c r="Y167" s="2" t="inlineStr"/>
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050474</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr"/>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="E167" s="4" t="inlineStr"/>
+      <c r="F167" s="4" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="H167" s="4" t="inlineStr"/>
+      <c r="I167" s="4" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J167" s="4" t="inlineStr"/>
+      <c r="K167" s="4" t="inlineStr"/>
+      <c r="L167" s="4" t="inlineStr"/>
+      <c r="M167" s="4" t="inlineStr"/>
+      <c r="N167" s="4" t="inlineStr"/>
+      <c r="O167" s="4" t="inlineStr"/>
+      <c r="P167" s="4" t="inlineStr"/>
+      <c r="Q167" s="4" t="inlineStr"/>
+      <c r="R167" s="4" t="inlineStr"/>
+      <c r="S167" s="4" t="inlineStr"/>
+      <c r="T167" s="4" t="inlineStr"/>
+      <c r="U167" s="4" t="inlineStr"/>
+      <c r="V167" s="4" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W167" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="X167" s="4" t="inlineStr"/>
+      <c r="Y167" s="4" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -11152,7 +11144,11 @@
       <c r="M168" s="2" t="inlineStr"/>
       <c r="N168" s="2" t="inlineStr"/>
       <c r="O168" s="2" t="inlineStr"/>
-      <c r="P168" s="2" t="inlineStr"/>
+      <c r="P168" s="2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr"/>
       <c r="S168" s="2" t="inlineStr"/>
@@ -11178,25 +11174,25 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -11227,7 +11223,7 @@
       <c r="U169" s="2" t="inlineStr"/>
       <c r="V169" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W169" s="2" t="inlineStr">
@@ -11241,25 +11237,25 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -11278,11 +11274,7 @@
       <c r="M170" s="2" t="inlineStr"/>
       <c r="N170" s="2" t="inlineStr"/>
       <c r="O170" s="2" t="inlineStr"/>
-      <c r="P170" s="2" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
-        </is>
-      </c>
+      <c r="P170" s="2" t="inlineStr"/>
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr"/>
       <c r="S170" s="2" t="inlineStr"/>
@@ -11294,7 +11286,7 @@
       <c r="U170" s="2" t="inlineStr"/>
       <c r="V170" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W170" s="2" t="inlineStr">
@@ -11308,25 +11300,25 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -11361,7 +11353,7 @@
       <c r="U171" s="2" t="inlineStr"/>
       <c r="V171" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W171" s="2" t="inlineStr">
@@ -11375,29 +11367,25 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr"/>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -11416,14 +11404,13 @@
       <c r="M172" s="2" t="inlineStr"/>
       <c r="N172" s="2" t="inlineStr"/>
       <c r="O172" s="2" t="inlineStr"/>
-      <c r="P172" s="2" t="inlineStr"/>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
       <c r="Q172" s="2" t="inlineStr"/>
-      <c r="R172" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
+      <c r="R172" s="2" t="inlineStr"/>
       <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr">
         <is>
@@ -11433,7 +11420,7 @@
       <c r="U172" s="2" t="inlineStr"/>
       <c r="V172" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W172" s="2" t="inlineStr">
@@ -11447,28 +11434,36 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr"/>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr"/>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11482,12 +11477,13 @@
       <c r="O173" s="2" t="inlineStr"/>
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr"/>
-      <c r="S173" s="2" t="inlineStr">
-        <is>
-          <t>Nicotine patches, hormone patches, pain relief gels</t>
-        </is>
-      </c>
+      <c r="R173" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="S173" s="2" t="inlineStr"/>
       <c r="T173" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11496,7 +11492,7 @@
       <c r="U173" s="2" t="inlineStr"/>
       <c r="V173" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="W173" s="2" t="inlineStr">
@@ -11510,25 +11506,25 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting behaviour </t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -11546,7 +11542,11 @@
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
       <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="inlineStr"/>
+      <c r="S174" s="2" t="inlineStr">
+        <is>
+          <t>Nicotine patches, hormone patches, pain relief gels</t>
+        </is>
+      </c>
       <c r="T174" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11555,7 +11555,7 @@
       <c r="U174" s="2" t="inlineStr"/>
       <c r="V174" s="2" t="inlineStr">
         <is>
-          <t>OC; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W174" s="2" t="inlineStr">
@@ -11569,25 +11569,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel behaviour </t>
+          <t xml:space="preserve">transporting behaviour </t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr"/>
@@ -11604,12 +11604,7 @@
       <c r="O175" s="2" t="inlineStr"/>
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
+      <c r="R175" s="2" t="inlineStr"/>
       <c r="S175" s="2" t="inlineStr"/>
       <c r="T175" s="2" t="inlineStr">
         <is>
@@ -11619,7 +11614,7 @@
       <c r="U175" s="2" t="inlineStr"/>
       <c r="V175" s="2" t="inlineStr">
         <is>
-          <t>OC; RW; PS</t>
+          <t>OC; RW</t>
         </is>
       </c>
       <c r="W175" s="2" t="inlineStr">
@@ -11633,25 +11628,25 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t xml:space="preserve">travel behaviour </t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>position-related behaviour</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
@@ -11670,7 +11665,8 @@
       <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="S176" s="2" t="inlineStr"/>
@@ -11682,7 +11678,7 @@
       <c r="U176" s="2" t="inlineStr"/>
       <c r="V176" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>OC; RW; PS</t>
         </is>
       </c>
       <c r="W176" s="2" t="inlineStr">
@@ -11696,36 +11692,28 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
-        </is>
-      </c>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr"/>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -11736,7 +11724,78 @@
       <c r="L177" s="2" t="inlineStr"/>
       <c r="M177" s="2" t="inlineStr"/>
       <c r="N177" s="2" t="inlineStr"/>
-      <c r="O177" s="2" t="inlineStr">
+      <c r="O177" s="2" t="inlineStr"/>
+      <c r="P177" s="2" t="inlineStr"/>
+      <c r="Q177" s="2" t="inlineStr"/>
+      <c r="R177" s="2" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="S177" s="2" t="inlineStr"/>
+      <c r="T177" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U177" s="2" t="inlineStr"/>
+      <c r="V177" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W177" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X177" s="2" t="inlineStr"/>
+      <c r="Y177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
+      <c r="L178" s="2" t="inlineStr"/>
+      <c r="M178" s="2" t="inlineStr"/>
+      <c r="N178" s="2" t="inlineStr"/>
+      <c r="O178" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">u is a uniform process aggregate means:
 •	u instance_of process aggregate
@@ -11746,72 +11805,9 @@
 </t>
         </is>
       </c>
-      <c r="P177" s="2" t="inlineStr"/>
-      <c r="Q177" s="2" t="inlineStr"/>
-      <c r="R177" s="2" t="inlineStr"/>
-      <c r="S177" s="2" t="inlineStr"/>
-      <c r="T177" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U177" s="2" t="inlineStr"/>
-      <c r="V177" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="W177" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X177" s="2" t="inlineStr"/>
-      <c r="Y177" s="2" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr"/>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr"/>
-      <c r="K178" s="2" t="inlineStr"/>
-      <c r="L178" s="2" t="inlineStr"/>
-      <c r="M178" s="2" t="inlineStr"/>
-      <c r="N178" s="2" t="inlineStr"/>
-      <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
-      <c r="R178" s="2" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
-        </is>
-      </c>
+      <c r="R178" s="2" t="inlineStr"/>
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr">
         <is>
@@ -11821,7 +11817,7 @@
       <c r="U178" s="2" t="inlineStr"/>
       <c r="V178" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="W178" s="2" t="inlineStr">
@@ -11835,25 +11831,25 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>health-related behaviour</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -11870,7 +11866,11 @@
       <c r="O179" s="2" t="inlineStr"/>
       <c r="P179" s="2" t="inlineStr"/>
       <c r="Q179" s="2" t="inlineStr"/>
-      <c r="R179" s="2" t="inlineStr"/>
+      <c r="R179" s="2" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
       <c r="S179" s="2" t="inlineStr"/>
       <c r="T179" s="2" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
       <c r="U179" s="2" t="inlineStr"/>
       <c r="V179" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W179" s="2" t="inlineStr">
@@ -11894,25 +11894,25 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
@@ -11939,7 +11939,7 @@
       <c r="U180" s="2" t="inlineStr"/>
       <c r="V180" s="2" t="inlineStr">
         <is>
-          <t>PS; RW</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W180" s="2" t="inlineStr">
@@ -11953,32 +11953,28 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr"/>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">locomotive behaviour </t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr"/>
       <c r="I181" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12002,7 +11998,7 @@
       <c r="U181" s="2" t="inlineStr"/>
       <c r="V181" s="2" t="inlineStr">
         <is>
-          <t>RW; OC; JH</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W181" s="2" t="inlineStr">
@@ -12016,28 +12012,32 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr"/>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="H182" s="2" t="inlineStr"/>
+          <t xml:space="preserve">locomotive behaviour </t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
@@ -12052,11 +12052,7 @@
       <c r="P182" s="2" t="inlineStr"/>
       <c r="Q182" s="2" t="inlineStr"/>
       <c r="R182" s="2" t="inlineStr"/>
-      <c r="S182" s="2" t="inlineStr">
-        <is>
-          <t>Watching a movie</t>
-        </is>
-      </c>
+      <c r="S182" s="2" t="inlineStr"/>
       <c r="T182" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12065,7 +12061,7 @@
       <c r="U182" s="2" t="inlineStr"/>
       <c r="V182" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; OC; JH</t>
         </is>
       </c>
       <c r="W182" s="2" t="inlineStr">
@@ -12075,6 +12071,69 @@
       </c>
       <c r="X182" s="2" t="inlineStr"/>
       <c r="Y182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050418</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr"/>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr"/>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
+      <c r="L183" s="2" t="inlineStr"/>
+      <c r="M183" s="2" t="inlineStr"/>
+      <c r="N183" s="2" t="inlineStr"/>
+      <c r="O183" s="2" t="inlineStr"/>
+      <c r="P183" s="2" t="inlineStr"/>
+      <c r="Q183" s="2" t="inlineStr"/>
+      <c r="R183" s="2" t="inlineStr"/>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>Watching a movie</t>
+        </is>
+      </c>
+      <c r="T183" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U183" s="2" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W183" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X183" s="2" t="inlineStr"/>
+      <c r="Y183" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Behaviour/bcio_behaviour.xlsx
+++ b/Behaviour/bcio_behaviour.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>abstinence duration1</t>
+          <t>abstinence duration2</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
